--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1195162.228572925</v>
+        <v>1239115.086524414</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7269634.299222737</v>
+        <v>7750057.201751013</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>49.53842828501017</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>361.3468622312334</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -829,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>11.12043047005175</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>218.775754413495</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>22.55001707551775</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>205.0873641277763</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>49.30653966551922</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>118.9693540944499</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.93168549786934</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>80.11775047948045</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1300,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>7.098427391118505</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>1.407937846523671</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1379,13 +1381,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1421,22 +1423,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>257.1312975339866</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1546,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>99.22889911337413</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>111.3190970511839</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1609,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D14" t="n">
-        <v>389.6069809546546</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1625,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1667,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>59.70406721933355</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1813,10 +1815,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1825,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.6576790987766</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.83048041442879</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2008,19 +2010,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2299,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>221.5389288874897</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>111.1800590294273</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.983589935715671</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2533,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2722,7 +2724,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2773,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>203.5163429933187</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>4.322062388456432</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>154.5259717924262</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3187,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399269</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>112.2192622328896</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3566,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439306</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>131.7736185949919</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>238.0472340876699</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3746,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>213.9693127714504</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>141.2668530828849</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3952,16 +3954,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>71.78780711257758</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>10.65306925449451</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>187.21057685784</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.2846230762511</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1342.050951843433</v>
+        <v>966.965586482338</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.190625897137</v>
+        <v>540.0648564956382</v>
       </c>
       <c r="D2" t="n">
-        <v>895.8980050821372</v>
+        <v>520.8126397210425</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>94.83569986890006</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924753</v>
@@ -4331,49 +4333,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335517</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.543958335517</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>1724.152608635864</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X2" t="n">
-        <v>1359.155778099264</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y2" t="n">
-        <v>1357.858912094559</v>
+        <v>982.7735467334641</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>323.6423572907505</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O3" t="n">
-        <v>756.3555336978366</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>729.0902991667042</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>557.1177360456202</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>393.8009631723909</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>227.5927573252444</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>55.73098309980486</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>55.73098309980486</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>55.73098309980486</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U4" t="n">
-        <v>1944.726803962681</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="V4" t="n">
-        <v>1663.01533657071</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W4" t="n">
-        <v>1388.162932743223</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>1145.599036189028</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>919.2562678787699</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.947823099961</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C5" t="n">
         <v>950.0470931132616</v>
@@ -4550,10 +4552,10 @@
         <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4565,22 +4567,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1696.494830002562</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
         <v>1768.825772958194</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X5" t="n">
-        <v>2202.133457436601</v>
+        <v>1195.874332975104</v>
       </c>
       <c r="Y5" t="n">
-        <v>1796.796187391491</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>595.8003524114338</v>
+        <v>645.7643351504313</v>
       </c>
       <c r="C7" t="n">
-        <v>423.8277892903498</v>
+        <v>473.7917720293473</v>
       </c>
       <c r="D7" t="n">
-        <v>260.5110164171205</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E7" t="n">
-        <v>94.30281056997401</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>94.30281056997401</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4732,43 +4734,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.43685720741</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1811.43685720741</v>
+        <v>1861.400839946408</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.725389815439</v>
+        <v>1579.689372554437</v>
       </c>
       <c r="W7" t="n">
-        <v>1254.872985987952</v>
+        <v>1304.83696872695</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.309089433757</v>
+        <v>1062.273072172755</v>
       </c>
       <c r="Y7" t="n">
-        <v>785.9663211234994</v>
+        <v>835.9303038624969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2043.959734409802</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.059004423102</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
         <v>1193.766383608102</v>
@@ -4790,7 +4792,7 @@
         <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
         <v>342.3666035752127</v>
@@ -4802,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M8" t="n">
-        <v>2059.098288819458</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W8" t="n">
-        <v>2120.543958335517</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.864363543668</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y8" t="n">
-        <v>2111.567497538963</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>602.6104029955975</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>1153.275937980036</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>1220.501010560616</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>962.9877020259423</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>791.0151389048583</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>627.698366031629</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>461.4901601844825</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>1445.841675777017</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.419516336084</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.076748025826</v>
+        <v>1153.153670738008</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.088374817714</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1353.187644831014</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>929.8950240160148</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>503.9180841638723</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>503.9180841638723</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>99.57902175332094</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136877</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>1633.224300044002</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>2433.665912441805</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N11" t="n">
-        <v>2433.665912441805</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>3234.107524839608</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>3234.107524839608</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3129.740230712748</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2871.385321309161</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2871.385321309161</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2871.385321309161</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2459.665322476908</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2199.936739109245</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>655.1670770651317</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>1455.608689462935</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="M12" t="n">
-        <v>1455.608689462935</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>1455.608689462935</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1455.608689462935</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>712.8053687669917</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>712.8053687669917</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>712.8053687669917</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>546.5971629198452</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>374.7353886944056</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>208.4784189886378</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679216</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V13" t="n">
-        <v>1404.166509616802</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W13" t="n">
-        <v>1129.314105789315</v>
+        <v>1425.821963957422</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.314105789315</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="Y13" t="n">
-        <v>902.9713374790574</v>
+        <v>1183.258067403227</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1160.43199643801</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>1160.43199643801</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>766.8895914333087</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>766.8895914333087</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>766.8895914333087</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5505290227574</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>780.1904584722912</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>1515.667965162099</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>2316.109577559902</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>2316.109577559902</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>4217.987261371733</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2754.827044480653</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2397.337629606903</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2397.337629606903</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1985.61763077465</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.28036072954</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679216</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>356.730451641001</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>356.730451641001</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N15" t="n">
-        <v>356.730451641001</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O15" t="n">
-        <v>1157.172064038804</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.6337401941772</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="C16" t="n">
-        <v>809.6337401941772</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="D16" t="n">
-        <v>646.3169673209479</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E16" t="n">
-        <v>480.1087614738015</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F16" t="n">
-        <v>308.2469872483618</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>1953.266910479596</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>1671.555443087625</v>
       </c>
       <c r="W16" t="n">
-        <v>1222.686253450462</v>
+        <v>1396.703039260138</v>
       </c>
       <c r="X16" t="n">
-        <v>1222.686253450462</v>
+        <v>1154.139142705943</v>
       </c>
       <c r="Y16" t="n">
-        <v>999.7997089062428</v>
+        <v>927.7963743956848</v>
       </c>
     </row>
     <row r="17">
@@ -5525,13 +5527,13 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5589,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>772.98449592559</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.365091998858</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C19" t="n">
-        <v>675.392528877774</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D19" t="n">
-        <v>512.0757560045447</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E19" t="n">
-        <v>345.8675501573982</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5698,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1955.492679006434</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1673.781211614463</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.928807786976</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1156.364911232781</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>930.0221429225235</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,13 +5840,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683193</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4478291472353</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4478291472353</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1036.530120513549</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>875.4305977324519</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C25" t="n">
-        <v>703.4580346113679</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D25" t="n">
-        <v>540.1412617381386</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E25" t="n">
-        <v>373.9330558909921</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>202.0712816655526</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2276.67171058086</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2106.536663099995</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1863.197315325895</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1583.012866826199</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1583.012866826199</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1308.160462998712</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1065.596566444518</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1065.596566444518</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,19 +6314,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>875.4305977324519</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>703.4580346113679</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>540.1412617381386</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>373.9330558909921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1101.77336604271</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>875.4305977324519</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6552,16 +6554,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.7597400424195</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C31" t="n">
-        <v>444.7871769213355</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7871769213355</v>
+        <v>424.597759447345</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>258.3895536001985</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1832.396244838396</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1550.684777446425</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.832373618938</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X31" t="n">
-        <v>1033.268477064743</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.9257087544852</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,19 +6788,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>201.4478291472353</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D34" t="n">
-        <v>201.4478291472353</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E34" t="n">
-        <v>201.4478291472353</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,61 +6925,61 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>481.632277646931</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7126,19 +7128,19 @@
         <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991802</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,19 +7262,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>739.6560874287652</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>842.3270571327721</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C40" t="n">
-        <v>670.3544940116881</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D40" t="n">
-        <v>507.0377211384588</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>507.0377211384588</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>335.1759469130192</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X40" t="n">
-        <v>1032.493025844838</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y40" t="n">
-        <v>1032.493025844838</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1535.345182670104</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1108.444452683404</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>685.1518318684045</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>685.1518318684045</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679213</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679213</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>427.2856093136876</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>427.2856093136876</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>1227.72722171149</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>2028.168834109293</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>2828.610446507096</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712747</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3129.740230712747</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>3129.740230712747</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>2772.250815838996</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2772.250815838996</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2360.530817006744</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1955.193546961634</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>72.12879345870397</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>72.12879345870397</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>72.12879345870397</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L42" t="n">
-        <v>72.12879345870397</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M42" t="n">
-        <v>526.7633817320167</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N42" t="n">
-        <v>1327.204994129819</v>
+        <v>1779.8768179202</v>
       </c>
       <c r="O42" t="n">
-        <v>1327.204994129819</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P42" t="n">
-        <v>1327.204994129819</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q42" t="n">
-        <v>1791.350470992599</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>786.1193253398437</v>
+        <v>3906.615339060613</v>
       </c>
       <c r="C43" t="n">
-        <v>786.1193253398437</v>
+        <v>3734.642775939529</v>
       </c>
       <c r="D43" t="n">
-        <v>622.8025524666144</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E43" t="n">
-        <v>480.1087614738013</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F43" t="n">
-        <v>308.2469872483617</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483617</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>4760.507896175404</v>
       </c>
       <c r="U43" t="n">
-        <v>2001.75583013582</v>
+        <v>4480.323447675709</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.044362743849</v>
+        <v>4407.810511198358</v>
       </c>
       <c r="W43" t="n">
-        <v>1445.191958916362</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.628062362167</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="Y43" t="n">
-        <v>976.2852940519094</v>
+        <v>3906.615339060613</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1743.414955385085</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1743.414955385085</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.122334570086</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1453947179433</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>469.0212129073435</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679213</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679213</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>715.2263527642962</v>
+        <v>811.7639428804554</v>
       </c>
       <c r="L44" t="n">
-        <v>1515.667965162099</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M44" t="n">
-        <v>2316.109577559901</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N44" t="n">
-        <v>3116.551189957704</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957704</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957704</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957704</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2975.752615436019</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2964.991939421378</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>2568.600589721725</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>2568.600589721725</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2163.263319676616</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679213</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679213</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>336.3796397763832</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>608.7826918167199</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>1409.224304214523</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="M45" t="n">
-        <v>1409.224304214523</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="N45" t="n">
-        <v>1409.224304214523</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O45" t="n">
-        <v>1409.224304214523</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P45" t="n">
-        <v>1409.224304214523</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="C46" t="n">
-        <v>975.8907098999449</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267156</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795691</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483617</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.960130429055</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.77568192936</v>
+        <v>4354.232642596015</v>
       </c>
       <c r="V46" t="n">
-        <v>1513.064214537389</v>
+        <v>4072.521175204045</v>
       </c>
       <c r="W46" t="n">
-        <v>1513.064214537389</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="X46" t="n">
-        <v>1513.064214537389</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>3571.3260030663</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>181.5591018660332</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>96.76900350898819</v>
       </c>
       <c r="O3" t="n">
-        <v>460.2559062950365</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8143,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P5" t="n">
-        <v>110.6369203512731</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8292,13 +8294,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>455.0528931487048</v>
+        <v>177.8131985346731</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>86.13502881159596</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>91.00089423008578</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>461.8305092169925</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>533.6962674374864</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093337</v>
+        <v>1035.799731739446</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8769,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241315</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>443.7517418254016</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>781.2186148465701</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093337</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>251.9371478624388</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9006,10 +9008,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>317.5133706982789</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9018,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>831.6987709321241</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,16 +9175,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>417.8918098719783</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9264,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9647,16 +9649,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>117.3609790173131</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10124,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,10 +10202,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>226.402256022168</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
@@ -10212,7 +10214,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>995.9774475394107</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>666.8880674041833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093335</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443478</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659259</v>
+        <v>867.7084382103637</v>
       </c>
       <c r="P41" t="n">
-        <v>447.1683702269092</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>482.323637354058</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234433</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>70.51375583797689</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>326.6138366035048</v>
+        <v>754.6403563518451</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425246</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093335</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443478</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,19 +11375,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>297.5538318538754</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0419679241313</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524251</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>144.1525998106719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>179.6654536046773</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>160.7847827380282</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D14" t="n">
-        <v>29.45271365219509</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>128.5602418056114</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.421661528378735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.4338286105162</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>50.56495090172237</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>50.50354611506967</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>40.58463724398291</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24619,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>36.62191459533426</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>160.2240614002185</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.61718469075893</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25093,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>38.61621282745647</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>71.98949189919249</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>52.37513777582056</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>32.82078141371824</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.858720208689135</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>206.9036272210433</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>23.27927070579003</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>207.1065456054738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>343.2614514705185</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>90.17202715685875</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.79471755090427</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>501264.705328605</v>
+        <v>665688.9395596107</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>501264.705328605</v>
+        <v>665688.9395596108</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676028.6036822241</v>
+        <v>676028.6036822239</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676028.6036822239</v>
+        <v>676028.6036822241</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676028.6036822239</v>
+        <v>676028.6036822241</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>501264.705328605</v>
+        <v>665688.9395596107</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>501264.705328605</v>
+        <v>665688.9395596108</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>407709.8676078143</v>
       </c>
       <c r="C2" t="n">
+        <v>407709.8676078142</v>
+      </c>
+      <c r="D2" t="n">
         <v>407709.8676078141</v>
       </c>
-      <c r="D2" t="n">
-        <v>407709.8676078143</v>
-      </c>
       <c r="E2" t="n">
-        <v>291733.7584019222</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="F2" t="n">
-        <v>291733.7584019222</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="G2" t="n">
         <v>393421.2821962133</v>
@@ -26332,7 +26334,7 @@
         <v>393421.2821962134</v>
       </c>
       <c r="I2" t="n">
-        <v>393421.2821962132</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="J2" t="n">
         <v>393421.2821962133</v>
@@ -26341,19 +26343,19 @@
         <v>393421.2821962132</v>
       </c>
       <c r="L2" t="n">
-        <v>393421.2821962132</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="M2" t="n">
+        <v>393421.2821962131</v>
+      </c>
+      <c r="N2" t="n">
         <v>393421.2821962133</v>
       </c>
-      <c r="N2" t="n">
-        <v>393421.2821962135</v>
-      </c>
       <c r="O2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="P2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156914</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346224</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537382</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>64241.80185904328</v>
+        <v>85368.22527849906</v>
       </c>
       <c r="F4" t="n">
-        <v>64241.80185904328</v>
+        <v>85368.22527849906</v>
       </c>
       <c r="G4" t="n">
         <v>86696.74064784778</v>
@@ -26436,7 +26438,7 @@
         <v>86696.74064784776</v>
       </c>
       <c r="I4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="J4" t="n">
         <v>86696.74064784776</v>
@@ -26445,19 +26447,19 @@
         <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="M4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="O4" t="n">
-        <v>64241.80185904328</v>
+        <v>85368.22527849906</v>
       </c>
       <c r="P4" t="n">
-        <v>64241.80185904328</v>
+        <v>85368.22527849904</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756202</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756202</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37384.8455969714</v>
+        <v>-37384.84559697128</v>
       </c>
       <c r="C6" t="n">
+        <v>149019.8878177658</v>
+      </c>
+      <c r="D6" t="n">
         <v>149019.8878177657</v>
       </c>
-      <c r="D6" t="n">
-        <v>149019.8878177658</v>
-      </c>
       <c r="E6" t="n">
-        <v>103002.5710118547</v>
+        <v>18546.08961259905</v>
       </c>
       <c r="F6" t="n">
-        <v>178333.5221653169</v>
+        <v>225978.3772291599</v>
       </c>
       <c r="G6" t="n">
-        <v>100084.0795483953</v>
+        <v>221348.8572764544</v>
       </c>
       <c r="H6" t="n">
-        <v>228974.479359936</v>
+        <v>228974.4793599359</v>
       </c>
       <c r="I6" t="n">
-        <v>228974.4793599357</v>
+        <v>228974.4793599358</v>
       </c>
       <c r="J6" t="n">
-        <v>83440.80942511935</v>
+        <v>83440.80942511931</v>
       </c>
       <c r="K6" t="n">
         <v>228974.4793599357</v>
       </c>
       <c r="L6" t="n">
-        <v>228974.4793599357</v>
+        <v>228974.4793599359</v>
       </c>
       <c r="M6" t="n">
-        <v>166100.542394562</v>
+        <v>55843.98815429608</v>
       </c>
       <c r="N6" t="n">
-        <v>228974.4793599361</v>
+        <v>228974.4793599358</v>
       </c>
       <c r="O6" t="n">
-        <v>178333.5221653168</v>
+        <v>225978.3772291598</v>
       </c>
       <c r="P6" t="n">
-        <v>178333.5221653168</v>
+        <v>225978.37722916</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099017</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099017</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>371.3345117074836</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>46.25593661269681</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.65045210707503</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>58.60684960120378</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27667,7 +27669,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27676,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.0527817684124</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>196.1965332168822</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27788,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>115.287860343191</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>158.4132499202489</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.7181951507454</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>273.7967702455326</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>163.0447290920667</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>238.7303197421292</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>75.42597529544652</v>
       </c>
       <c r="O3" t="n">
-        <v>437.0840165728143</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34863,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P5" t="n">
-        <v>73.06155854104179</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35012,13 +35014,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>432.5378064344752</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>67.9041137177578</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>495.3842250048635</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099019</v>
+        <v>998.3684688400139</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099019</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>421.9809006205729</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>742.9065724139472</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>214.3617860522075</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>294.9982839840494</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,16 +35895,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>395.492576038645</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36367,16 +36369,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36844,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>205.0592278086264</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>958.5461846399789</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>643.7912868918553</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099017</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099017</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099017</v>
+        <v>830.3174788543397</v>
       </c>
       <c r="P41" t="n">
-        <v>409.5930084166779</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>459.22685684173</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099017</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>47.34186611575466</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>290.8492358086955</v>
+        <v>718.8757555570357</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099017</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099017</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099017</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>275.1545980205421</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>808.5268812099017</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>981.7058813107097</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1239115.086524414</v>
+        <v>1238397.096409556</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602536</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760742</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>84.5365520338988</v>
       </c>
       <c r="F2" t="n">
-        <v>49.53842828501017</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -867,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>218.775754413495</v>
+        <v>60.29055953944342</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>76.72517672893835</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.0873641277763</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>120.6429778048375</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1065,13 +1065,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>118.9693540944499</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1153,7 +1153,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>80.11775047948045</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>24.33670114922102</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1293,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1302,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>7.098427391118505</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>53.03228358185952</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>248.2276157751724</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3190970511839</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1618,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>312.9009087555611</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.70406721933355</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.2482518332236</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1900,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9811728869526</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>196.6051049235199</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2143,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686788</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5389288874897</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>111.1800590294273</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>68.7156591506529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -2961,10 +2961,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>154.5259717924262</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110.6104701467503</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.15466974967032</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>112.2192622328896</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3480,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>28.40668862714529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3669,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>238.0472340876699</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>180.5638623511573</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3793,10 +3793,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U41" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3912,10 +3912,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>189.7321519076229</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>71.78780711257758</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3.380036230935122</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,10 +4149,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>187.21057685784</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>966.965586482338</v>
+        <v>1334.229718373682</v>
       </c>
       <c r="C2" t="n">
-        <v>540.0648564956382</v>
+        <v>1311.369392427386</v>
       </c>
       <c r="D2" t="n">
-        <v>520.8126397210425</v>
+        <v>888.0767716123864</v>
       </c>
       <c r="E2" t="n">
-        <v>94.83569986890006</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,49 +4333,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300184</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X2" t="n">
-        <v>984.0704127381697</v>
+        <v>1351.334544629514</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.7735467334641</v>
+        <v>1350.037678624808</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4488,13 +4488,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
@@ -4515,22 +4515,22 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U4" t="n">
-        <v>1786.751981150003</v>
+        <v>2116.973084059203</v>
       </c>
       <c r="V4" t="n">
-        <v>1786.751981150003</v>
+        <v>1835.261616667232</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1560.409212839745</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y4" t="n">
         <v>1317.84531628555</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595574</v>
+        <v>1029.323819803441</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>1006.463493857145</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>583.1708730421452</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>561.2343372304068</v>
       </c>
       <c r="F5" t="n">
         <v>483.7341587163277</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2152.580309506745</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.594331807357</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.874332975104</v>
+        <v>1450.469050099676</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106834</v>
+        <v>1045.131780054567</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.7643351504313</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>473.7917720293473</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>310.474999156118</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4734,43 +4734,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688276</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U7" t="n">
-        <v>1861.400839946408</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V7" t="n">
-        <v>1579.689372554437</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W7" t="n">
-        <v>1304.83696872695</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="X7" t="n">
-        <v>1062.273072172755</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="Y7" t="n">
-        <v>835.9303038624969</v>
+        <v>1249.540941315744</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.766383608102</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>116.829168004879</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>667.4947029893171</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1664.703751417078</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1664.703751417078</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>2095.961431922162</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>2094.664565917457</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.9877020259423</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C10" t="n">
-        <v>791.0151389048583</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>627.698366031629</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>461.4901601844825</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2171.343289248377</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>1889.631821856406</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1614.779418028919</v>
       </c>
       <c r="X10" t="n">
-        <v>1379.496439048266</v>
+        <v>1372.215521474724</v>
       </c>
       <c r="Y10" t="n">
-        <v>1153.153670738008</v>
+        <v>1145.872753164466</v>
       </c>
     </row>
     <row r="11">
@@ -5041,28 +5041,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>2994.337835136581</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O11" t="n">
-        <v>3839.482485287394</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P11" t="n">
-        <v>4547.761764445321</v>
+        <v>4637.488747086102</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5086,7 +5086,7 @@
         <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>819.4496289866299</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>819.4496289866299</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>767.8314564262178</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>595.8588933051337</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>432.5421204319044</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>266.333914584758</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5226,25 +5226,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U13" t="n">
-        <v>1819.976963724326</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V13" t="n">
-        <v>1538.265496332355</v>
+        <v>1459.192597276028</v>
       </c>
       <c r="W13" t="n">
-        <v>1425.821963957422</v>
+        <v>1184.340193448541</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.258067403227</v>
+        <v>1184.340193448541</v>
       </c>
       <c r="Y13" t="n">
-        <v>1183.258067403227</v>
+        <v>957.9974251382835</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
         <v>837.1812570720355</v>
@@ -5281,25 +5281,25 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O14" t="n">
-        <v>4217.987261371733</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5354,25 +5354,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>690.5618714473296</v>
+        <v>379.221077120493</v>
       </c>
       <c r="L15" t="n">
-        <v>690.5618714473296</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="M15" t="n">
-        <v>690.5618714473296</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="N15" t="n">
-        <v>690.5618714473296</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="O15" t="n">
-        <v>690.5618714473296</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P15" t="n">
         <v>1362.599788512017</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>867.4892357902974</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C16" t="n">
-        <v>867.4892357902974</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D16" t="n">
-        <v>704.1724629170681</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="E16" t="n">
-        <v>537.9642570699216</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="F16" t="n">
-        <v>366.102482844482</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="G16" t="n">
-        <v>199.8455131387141</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="H16" t="n">
         <v>199.8455131387141</v>
@@ -5466,22 +5466,22 @@
         <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>2233.451358979291</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U16" t="n">
-        <v>1953.266910479596</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V16" t="n">
-        <v>1671.555443087625</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.703039260138</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X16" t="n">
-        <v>1154.139142705943</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y16" t="n">
-        <v>927.7963743956848</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5527,16 +5527,16 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5597,25 +5597,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>772.98449592559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>772.98449592559</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.7245472657505</v>
+        <v>853.0186603771511</v>
       </c>
       <c r="C19" t="n">
-        <v>380.7519841446665</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D19" t="n">
-        <v>217.4352112714372</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E19" t="n">
-        <v>217.4352112714372</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1560.600929470899</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1285.748525643412</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1043.184629089217</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>1043.184629089217</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,28 +5740,28 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5788,7 +5788,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
         <v>3777.607131232208</v>
@@ -5828,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5925,37 +5925,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1036.530120513549</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>793.966223959354</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O23" t="n">
-        <v>3959.47027938737</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P23" t="n">
-        <v>4667.749558545297</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6068,28 +6068,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3442790273841</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>475.3442790273841</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N24" t="n">
-        <v>475.3442790273841</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.7245472657505</v>
+        <v>689.7018875039219</v>
       </c>
       <c r="C25" t="n">
-        <v>552.7245472657505</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="D25" t="n">
-        <v>440.421457337036</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6189,10 +6189,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>916.0446558141798</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>689.7018875039219</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1007.532766690843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
         <v>1007.532766690843</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6469,13 +6469,13 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
         <v>3833.214576747414</v>
@@ -6551,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.8870954416583</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>587.9145323205743</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="D31" t="n">
-        <v>424.597759447345</v>
+        <v>380.2386668759551</v>
       </c>
       <c r="E31" t="n">
-        <v>258.3895536001985</v>
+        <v>214.0304610288087</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>214.0304610288087</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.793760306111</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>986.2298637519162</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.8870954416583</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6709,16 +6709,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6788,16 +6788,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
         <v>1828.971033901635</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6946,19 +6946,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7016,25 +7016,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>971.931772215671</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>971.931772215671</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>971.931772215671</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N36" t="n">
-        <v>971.931772215671</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
         <v>1828.971033901635</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.604840768015</v>
+        <v>540.252050633783</v>
       </c>
       <c r="C37" t="n">
-        <v>481.632277646931</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D37" t="n">
-        <v>481.632277646931</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E37" t="n">
-        <v>315.4240717997845</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>315.4240717997845</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
         <v>202.0712816655526</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1312.677474344533</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.113577790339</v>
+        <v>956.7607876561067</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7708094800807</v>
+        <v>730.4180193458487</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7262,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>609.4538236255814</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C40" t="n">
-        <v>437.4812605044974</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.090328421558</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1825.090328421558</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1543.378861029587</v>
+        <v>1406.669157315652</v>
       </c>
       <c r="W40" t="n">
-        <v>1268.5264572021</v>
+        <v>1406.669157315652</v>
       </c>
       <c r="X40" t="n">
-        <v>1025.962560647905</v>
+        <v>1164.105260761457</v>
       </c>
       <c r="Y40" t="n">
-        <v>799.6197923376471</v>
+        <v>937.7624924511995</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4547.761764445321</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
@@ -7441,7 +7441,7 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U41" t="n">
         <v>4529.262127278774</v>
@@ -7493,25 +7493,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>690.5618714473296</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M42" t="n">
-        <v>690.5618714473296</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N42" t="n">
-        <v>1779.8768179202</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3906.615339060613</v>
+        <v>873.2048292056135</v>
       </c>
       <c r="C43" t="n">
-        <v>3734.642775939529</v>
+        <v>701.2322660845294</v>
       </c>
       <c r="D43" t="n">
-        <v>3571.3260030663</v>
+        <v>537.9154932113001</v>
       </c>
       <c r="E43" t="n">
-        <v>3405.117797219153</v>
+        <v>371.7072873641537</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>4760.507896175404</v>
+        <v>2088.84133400159</v>
       </c>
       <c r="U43" t="n">
-        <v>4480.323447675709</v>
+        <v>2088.84133400159</v>
       </c>
       <c r="V43" t="n">
-        <v>4407.810511198358</v>
+        <v>1807.129866609619</v>
       </c>
       <c r="W43" t="n">
-        <v>4132.95810737087</v>
+        <v>1532.277462782132</v>
       </c>
       <c r="X43" t="n">
-        <v>4132.95810737087</v>
+        <v>1289.713566227937</v>
       </c>
       <c r="Y43" t="n">
-        <v>3906.615339060613</v>
+        <v>1063.370797917679</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>811.7639428804554</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1741.388990499732</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2745.67509191879</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
         <v>3721.926150405491</v>
@@ -7675,25 +7675,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822645</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>4062.710054589939</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>3254.598706058034</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2849.261436012924</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>4031.958421451902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>4031.958421451902</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949504</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3571.3260030663</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C46" t="n">
-        <v>3571.3260030663</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="D46" t="n">
-        <v>3571.3260030663</v>
+        <v>537.9154932113001</v>
       </c>
       <c r="E46" t="n">
-        <v>3405.117797219153</v>
+        <v>371.7072873641537</v>
       </c>
       <c r="F46" t="n">
-        <v>3233.256022993713</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G46" t="n">
-        <v>3066.999053287946</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H46" t="n">
-        <v>2923.2027847961</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U46" t="n">
-        <v>4354.232642596015</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V46" t="n">
-        <v>4072.521175204045</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W46" t="n">
-        <v>3797.668771376558</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X46" t="n">
-        <v>3797.668771376558</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y46" t="n">
-        <v>3571.3260030663</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>300.4142109955939</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>96.76900350898819</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>108.094208435838</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>177.8131985346731</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8382,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8455,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8540,16 +8540,16 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>173.8486821944324</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>461.8305092169925</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1035.799731739446</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>287.4399897374262</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8938,19 +8938,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>772.1208831718561</v>
       </c>
       <c r="P14" t="n">
-        <v>251.9371478624388</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>292.3948789900136</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9023,7 +9023,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>700.5970200580485</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9175,19 +9175,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>625.182225377852</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951743</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,19 +9245,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>417.8918098719783</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9266,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>26.37892716579976</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>117.3609790173131</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
-        <v>716.4444307130257</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10199,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
@@ -10214,7 +10214,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,19 +10357,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10436,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>145.3082203566077</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,16 +10676,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>136.0326064801326</v>
       </c>
       <c r="O36" t="n">
-        <v>420.03429863453</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,16 +10834,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>236.8553498857486</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10910,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>867.7084382103637</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>70.51375583797689</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11162,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>754.6403563518451</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11381,16 +11381,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N45" t="n">
-        <v>1003.048909524251</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>30.66673694287894</v>
       </c>
       <c r="W13" t="n">
-        <v>160.7847827380282</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.5602418056114</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>21.11005397370357</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>56.16198359623262</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>82.28924779453152</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189918861</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.56495090172237</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>50.50354611506967</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>171.422598438</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.61718469075893</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>53.98392986195985</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>38.61621282745647</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>52.37513777582056</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>211.7315689615076</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.858720208689135</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>98.33049036689408</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U41" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>51.17380238873611</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>207.1065456054738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>158.3035689135619</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>90.17202715685875</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>665688.9395596107</v>
+        <v>665688.9395596108</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>665688.9395596108</v>
+        <v>665688.9395596107</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676028.6036822239</v>
+        <v>676028.6036822241</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676028.6036822241</v>
+        <v>676028.6036822239</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676028.6036822239</v>
+        <v>676028.6036822241</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676028.6036822241</v>
+        <v>676028.6036822239</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676028.6036822239</v>
+        <v>676028.6036822241</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665688.9395596107</v>
+        <v>665688.9395596108</v>
       </c>
     </row>
     <row r="16">
@@ -26316,37 +26316,37 @@
         <v>407709.8676078143</v>
       </c>
       <c r="C2" t="n">
-        <v>407709.8676078142</v>
+        <v>407709.8676078141</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078141</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="E2" t="n">
-        <v>387405.0806156915</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="F2" t="n">
-        <v>387405.0806156914</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="G2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="H2" t="n">
+        <v>393421.2821962133</v>
+      </c>
+      <c r="I2" t="n">
         <v>393421.2821962134</v>
-      </c>
-      <c r="I2" t="n">
-        <v>393421.2821962133</v>
       </c>
       <c r="J2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="K2" t="n">
-        <v>393421.2821962132</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="L2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="M2" t="n">
-        <v>393421.2821962131</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="N2" t="n">
         <v>393421.2821962133</v>
@@ -26355,7 +26355,7 @@
         <v>387405.0806156913</v>
       </c>
       <c r="P2" t="n">
-        <v>387405.0806156914</v>
+        <v>387405.0806156913</v>
       </c>
     </row>
     <row r="3">
@@ -26426,10 +26426,10 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>85368.22527849906</v>
+        <v>85368.22527849904</v>
       </c>
       <c r="F4" t="n">
-        <v>85368.22527849906</v>
+        <v>85368.22527849904</v>
       </c>
       <c r="G4" t="n">
         <v>86696.74064784778</v>
@@ -26447,19 +26447,19 @@
         <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
+        <v>85368.22527849904</v>
+      </c>
+      <c r="P4" t="n">
         <v>85368.22527849906</v>
-      </c>
-      <c r="P4" t="n">
-        <v>85368.22527849904</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37384.84559697128</v>
+        <v>-37384.84559697134</v>
       </c>
       <c r="C6" t="n">
+        <v>149019.8878177657</v>
+      </c>
+      <c r="D6" t="n">
         <v>149019.8878177658</v>
       </c>
-      <c r="D6" t="n">
-        <v>149019.8878177657</v>
-      </c>
       <c r="E6" t="n">
-        <v>18546.08961259905</v>
+        <v>18473.57251619838</v>
       </c>
       <c r="F6" t="n">
-        <v>225978.3772291599</v>
+        <v>225905.8601327593</v>
       </c>
       <c r="G6" t="n">
-        <v>221348.8572764544</v>
+        <v>221297.8266142701</v>
       </c>
       <c r="H6" t="n">
-        <v>228974.4793599359</v>
+        <v>228923.4486977516</v>
       </c>
       <c r="I6" t="n">
-        <v>228974.4793599358</v>
+        <v>228923.4486977516</v>
       </c>
       <c r="J6" t="n">
-        <v>83440.80942511931</v>
+        <v>83389.77876293506</v>
       </c>
       <c r="K6" t="n">
-        <v>228974.4793599357</v>
+        <v>228923.4486977515</v>
       </c>
       <c r="L6" t="n">
-        <v>228974.4793599359</v>
+        <v>228923.4486977516</v>
       </c>
       <c r="M6" t="n">
-        <v>55843.98815429608</v>
+        <v>55792.95749211202</v>
       </c>
       <c r="N6" t="n">
-        <v>228974.4793599358</v>
+        <v>228923.4486977516</v>
       </c>
       <c r="O6" t="n">
-        <v>225978.3772291598</v>
+        <v>225905.8601327593</v>
       </c>
       <c r="P6" t="n">
-        <v>225978.37722916</v>
+        <v>225905.8601327593</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>337.1806184197222</v>
       </c>
       <c r="F2" t="n">
-        <v>371.3345117074836</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>58.60684960120378</v>
+        <v>217.0920444752553</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>344.1477632635554</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>196.1965332168822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>67.62133122010752</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>158.4132499202489</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>273.7967702455326</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>383.2660976947092</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>163.0447290920667</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>224.3503204328392</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>75.42597529544652</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>155.2981118204435</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35102,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>440.0596680121639</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>998.3684688400139</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>251.3153151328282</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35658,19 +35658,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>734.729923815832</v>
       </c>
       <c r="P14" t="n">
-        <v>214.3617860522075</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>269.8797922757841</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>678.8261788532199</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35895,19 +35895,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>587.9026025434059</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>395.492576038645</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.207037443577533</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36293,7 +36293,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977442</v>
       </c>
       <c r="P22" t="n">
         <v>293.5345574968697</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>94.84589230308353</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
-        <v>679.0534713570016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,19 +37077,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>122.2114398442797</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>114.689578266591</v>
       </c>
       <c r="O36" t="n">
-        <v>396.8624089123078</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,16 +37554,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>200.7306752811506</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>830.3174788543397</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>47.34186611575466</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>718.8757555570357</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N45" t="n">
-        <v>981.7058813107097</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
